--- a/Data/2009 STOP Summary.xlsx
+++ b/Data/2009 STOP Summary.xlsx
@@ -2780,7 +2780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -26073,7 +26073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R199"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
@@ -29797,7 +29797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
@@ -32815,7 +32815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -37181,7 +37181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -41552,7 +41552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -44422,7 +44422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>

--- a/Data/2009 STOP Summary.xlsx
+++ b/Data/2009 STOP Summary.xlsx
@@ -2780,7 +2780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -4739,117 +4739,12 @@
     <row r="92">
       <c r="A92" s="31" t="n"/>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="F94" s="62" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="32" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:F3"/>
@@ -26073,7 +25968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
@@ -29638,120 +29533,9 @@
         <v>1533317.7</v>
       </c>
     </row>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="33" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G2:G3"/>
@@ -29797,7 +29581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
@@ -32664,118 +32448,9 @@
     <row r="89">
       <c r="I89" s="17" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="33" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="E2:E3"/>
@@ -32815,7 +32490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
@@ -37025,115 +36700,9 @@
     <row r="92">
       <c r="F92" s="17" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="32" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="J2:J3"/>
@@ -37181,7 +36750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -41396,115 +40965,9 @@
       <c r="I92" s="17" t="n"/>
       <c r="M92" s="17" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="32" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="K2:K3"/>
@@ -41552,7 +41015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
@@ -44276,115 +43739,9 @@
       <c r="G92" s="17" t="n"/>
       <c r="H92" s="17" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="32" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G2:G3"/>
@@ -44422,7 +43779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
@@ -46641,116 +45998,9 @@
         <v>3697700.71</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="32" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A59:B60"/>
@@ -46786,7 +46036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
@@ -48469,116 +47719,9 @@
     <row r="91">
       <c r="A91" s="31" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="32" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F2:F3"/>
@@ -48612,7 +47755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
@@ -50576,115 +49719,9 @@
       <c r="D92" s="17" t="n"/>
       <c r="E92" s="17" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="32" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A59:B60"/>
